--- a/Документы/Долги.xlsx
+++ b/Документы/Долги.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="2835" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Теща" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Цель</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Теще на телефон</t>
+  </si>
+  <si>
+    <t>Кредит в  траст</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +532,7 @@
       </c>
       <c r="F1" s="10">
         <f>SUM(C2:D250)</f>
-        <v>-3450</v>
+        <v>-4950</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -585,9 +588,15 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43187</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1500</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>

--- a/Документы/Долги.xlsx
+++ b/Документы/Долги.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="3810" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Теща" sheetId="1" r:id="rId1"/>
